--- a/C04.04_Parte actividad_v1 -mayo 2017.xlsx
+++ b/C04.04_Parte actividad_v1 -mayo 2017.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr showInkAnnotation="0"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7950"/>
+    <workbookView windowWidth="28695" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$1:$G$58</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$1:$G$53</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
   <si>
     <t>MENSOFT CONSULTORES, S.L.</t>
   </si>
@@ -96,14 +96,18 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="h:mm;@"/>
-    <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;€&quot;"/>
-    <numFmt numFmtId="166" formatCode="dd\/mm\/yy"/>
-    <numFmt numFmtId="167" formatCode="[h]:mm:ss;@"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="8">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="dd\/mm\/yy"/>
+    <numFmt numFmtId="177" formatCode="h:mm;@"/>
+    <numFmt numFmtId="178" formatCode="[h]:mm:ss;@"/>
+    <numFmt numFmtId="179" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="28">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -152,8 +156,159 @@
       <name val="Arial"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -162,18 +317,204 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -355,18 +696,276 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
@@ -380,10 +979,14 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -398,19 +1001,96 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
@@ -418,108 +1098,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -530,7 +1160,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
@@ -544,7 +1174,7 @@
       <xdr:row>52</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="1043" name="Line 14"/>
         <xdr:cNvSpPr>
@@ -553,7 +1183,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7486650" y="9628505"/>
+          <a:off x="7486650" y="9457055"/>
           <a:ext cx="0" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -583,7 +1213,7 @@
       <xdr:row>52</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="1044" name="Line 19"/>
         <xdr:cNvSpPr>
@@ -592,7 +1222,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7486650" y="9628505"/>
+          <a:off x="7486650" y="9457055"/>
           <a:ext cx="19050" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -630,7 +1260,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -645,7 +1275,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="7507867" cy="838201"/>
+          <a:ext cx="7497445" cy="862965"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -685,7 +1315,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -697,10 +1327,10 @@
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="5076265" y="8505266"/>
-          <a:ext cx="1949823" cy="828134"/>
+          <a:off x="5067300" y="8674100"/>
+          <a:ext cx="1944370" cy="837565"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1062,1102 +1692,1101 @@
       <a:lstStyle/>
     </a:lnDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A6:IV58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="F48" sqref="A1:G53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" customWidth="1"/>
-    <col min="3" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="25.28515625" customWidth="1"/>
-    <col min="6" max="6" width="23.28515625" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="1"/>
-    <col min="10" max="10" width="12.85546875"/>
+    <col min="1" max="1" width="8.57142857142857" customWidth="1"/>
+    <col min="3" max="4" width="13.7142857142857" customWidth="1"/>
+    <col min="5" max="5" width="25.2857142857143" customWidth="1"/>
+    <col min="6" max="6" width="23.2857142857143" customWidth="1"/>
+    <col min="7" max="7" width="18.7142857142857" customWidth="1"/>
+    <col min="8" max="8" width="11.4285714285714" style="2"/>
+    <col min="10" max="10" width="12.8571428571429"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:256" ht="13.9" customHeight="1"/>
-    <row r="7" spans="1:256" ht="18.75" customHeight="1">
-      <c r="A7" s="2" t="s">
+    <row r="6" ht="13.9" customHeight="1"/>
+    <row r="7" ht="18.75" customHeight="1" spans="1:1">
+      <c r="A7" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:256">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:1">
+      <c r="A8" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:256">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:1">
+      <c r="A9" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:256" ht="15.75">
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="1:256" ht="17.45" customHeight="1">
-      <c r="A11" s="39" t="s">
+    <row r="10" ht="16.5" spans="5:7">
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" ht="17.45" customHeight="1" spans="1:7">
+      <c r="A11" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="5" t="s">
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="37">
+      <c r="G11" s="10">
         <v>42913</v>
       </c>
     </row>
-    <row r="12" spans="1:256" ht="15.75">
-      <c r="A12" s="42" t="s">
+    <row r="12" ht="16.5" spans="1:7">
+      <c r="A12" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="6" t="s">
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="7"/>
-    </row>
-    <row r="13" spans="1:256" ht="33.6" customHeight="1" thickBot="1">
-      <c r="A13" s="8" t="s">
+      <c r="G12" s="15"/>
+    </row>
+    <row r="13" ht="33.6" customHeight="1" spans="1:7">
+      <c r="A13" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:256" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A14" s="26">
+    <row r="14" ht="13.5" customHeight="1" spans="1:11">
+      <c r="A14" s="17">
         <v>1</v>
       </c>
-      <c r="B14" s="27">
+      <c r="B14" s="18">
         <v>0.3125</v>
       </c>
-      <c r="C14" s="61"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" s="63">
+      <c r="C14" s="19"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="22">
         <f>B14/$K$14</f>
         <v>0.937500000000001</v>
       </c>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="K14" s="14">
-        <v>0.33333333333333298</v>
-      </c>
-    </row>
-    <row r="15" spans="1:256" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A15" s="26">
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="K14" s="24">
+        <v>0.333333333333333</v>
+      </c>
+    </row>
+    <row r="15" ht="13.5" customHeight="1" spans="1:256">
+      <c r="A15" s="17">
         <v>2</v>
       </c>
-      <c r="B15" s="27">
+      <c r="B15" s="18">
         <v>0.25</v>
       </c>
-      <c r="C15" s="61"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="63">
+      <c r="C15" s="19"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="22">
         <f t="shared" ref="G15:G43" si="0">B15/$K$14</f>
-        <v>0.75000000000000078</v>
-      </c>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="25"/>
-      <c r="O15" s="25"/>
-      <c r="P15" s="25"/>
-      <c r="Q15" s="25"/>
-      <c r="R15" s="25"/>
-      <c r="S15" s="25"/>
-      <c r="T15" s="25"/>
-      <c r="U15" s="25"/>
-      <c r="V15" s="25"/>
-      <c r="W15" s="25"/>
-      <c r="X15" s="25"/>
-      <c r="Y15" s="25"/>
-      <c r="Z15" s="25"/>
-      <c r="AA15" s="25"/>
-      <c r="AB15" s="25"/>
-      <c r="AC15" s="25"/>
-      <c r="AD15" s="25"/>
-      <c r="AE15" s="25"/>
-      <c r="AF15" s="25"/>
-      <c r="AG15" s="25"/>
-      <c r="AH15" s="25"/>
-      <c r="AI15" s="25"/>
-      <c r="AJ15" s="25"/>
-      <c r="AK15" s="25"/>
-      <c r="AL15" s="25"/>
-      <c r="AM15" s="25"/>
-      <c r="AN15" s="25"/>
-      <c r="AO15" s="25"/>
-      <c r="AP15" s="25"/>
-      <c r="AQ15" s="25"/>
-      <c r="AR15" s="25"/>
-      <c r="AS15" s="25"/>
-      <c r="AT15" s="25"/>
-      <c r="AU15" s="25"/>
-      <c r="AV15" s="25"/>
-      <c r="AW15" s="25"/>
-      <c r="AX15" s="25"/>
-      <c r="AY15" s="25"/>
-      <c r="AZ15" s="25"/>
-      <c r="BA15" s="25"/>
-      <c r="BB15" s="25"/>
-      <c r="BC15" s="25"/>
-      <c r="BD15" s="25"/>
-      <c r="BE15" s="25"/>
-      <c r="BF15" s="25"/>
-      <c r="BG15" s="25"/>
-      <c r="BH15" s="25"/>
-      <c r="BI15" s="25"/>
-      <c r="BJ15" s="25"/>
-      <c r="BK15" s="25"/>
-      <c r="BL15" s="25"/>
-      <c r="BM15" s="25"/>
-      <c r="BN15" s="25"/>
-      <c r="BO15" s="25"/>
-      <c r="BP15" s="25"/>
-      <c r="BQ15" s="25"/>
-      <c r="BR15" s="25"/>
-      <c r="BS15" s="25"/>
-      <c r="BT15" s="25"/>
-      <c r="BU15" s="25"/>
-      <c r="BV15" s="25"/>
-      <c r="BW15" s="25"/>
-      <c r="BX15" s="25"/>
-      <c r="BY15" s="25"/>
-      <c r="BZ15" s="25"/>
-      <c r="CA15" s="25"/>
-      <c r="CB15" s="25"/>
-      <c r="CC15" s="25"/>
-      <c r="CD15" s="25"/>
-      <c r="CE15" s="25"/>
-      <c r="CF15" s="25"/>
-      <c r="CG15" s="25"/>
-      <c r="CH15" s="25"/>
-      <c r="CI15" s="25"/>
-      <c r="CJ15" s="25"/>
-      <c r="CK15" s="25"/>
-      <c r="CL15" s="25"/>
-      <c r="CM15" s="25"/>
-      <c r="CN15" s="25"/>
-      <c r="CO15" s="25"/>
-      <c r="CP15" s="25"/>
-      <c r="CQ15" s="25"/>
-      <c r="CR15" s="25"/>
-      <c r="CS15" s="25"/>
-      <c r="CT15" s="25"/>
-      <c r="CU15" s="25"/>
-      <c r="CV15" s="25"/>
-      <c r="CW15" s="25"/>
-      <c r="CX15" s="25"/>
-      <c r="CY15" s="25"/>
-      <c r="CZ15" s="25"/>
-      <c r="DA15" s="25"/>
-      <c r="DB15" s="25"/>
-      <c r="DC15" s="25"/>
-      <c r="DD15" s="25"/>
-      <c r="DE15" s="25"/>
-      <c r="DF15" s="25"/>
-      <c r="DG15" s="25"/>
-      <c r="DH15" s="25"/>
-      <c r="DI15" s="25"/>
-      <c r="DJ15" s="25"/>
-      <c r="DK15" s="25"/>
-      <c r="DL15" s="25"/>
-      <c r="DM15" s="25"/>
-      <c r="DN15" s="25"/>
-      <c r="DO15" s="25"/>
-      <c r="DP15" s="25"/>
-      <c r="DQ15" s="25"/>
-      <c r="DR15" s="25"/>
-      <c r="DS15" s="25"/>
-      <c r="DT15" s="25"/>
-      <c r="DU15" s="25"/>
-      <c r="DV15" s="25"/>
-      <c r="DW15" s="25"/>
-      <c r="DX15" s="25"/>
-      <c r="DY15" s="25"/>
-      <c r="DZ15" s="25"/>
-      <c r="EA15" s="25"/>
-      <c r="EB15" s="25"/>
-      <c r="EC15" s="25"/>
-      <c r="ED15" s="25"/>
-      <c r="EE15" s="25"/>
-      <c r="EF15" s="25"/>
-      <c r="EG15" s="25"/>
-      <c r="EH15" s="25"/>
-      <c r="EI15" s="25"/>
-      <c r="EJ15" s="25"/>
-      <c r="EK15" s="25"/>
-      <c r="EL15" s="25"/>
-      <c r="EM15" s="25"/>
-      <c r="EN15" s="25"/>
-      <c r="EO15" s="25"/>
-      <c r="EP15" s="25"/>
-      <c r="EQ15" s="25"/>
-      <c r="ER15" s="25"/>
-      <c r="ES15" s="25"/>
-      <c r="ET15" s="25"/>
-      <c r="EU15" s="25"/>
-      <c r="EV15" s="25"/>
-      <c r="EW15" s="25"/>
-      <c r="EX15" s="25"/>
-      <c r="EY15" s="25"/>
-      <c r="EZ15" s="25"/>
-      <c r="FA15" s="25"/>
-      <c r="FB15" s="25"/>
-      <c r="FC15" s="25"/>
-      <c r="FD15" s="25"/>
-      <c r="FE15" s="25"/>
-      <c r="FF15" s="25"/>
-      <c r="FG15" s="25"/>
-      <c r="FH15" s="25"/>
-      <c r="FI15" s="25"/>
-      <c r="FJ15" s="25"/>
-      <c r="FK15" s="25"/>
-      <c r="FL15" s="25"/>
-      <c r="FM15" s="25"/>
-      <c r="FN15" s="25"/>
-      <c r="FO15" s="25"/>
-      <c r="FP15" s="25"/>
-      <c r="FQ15" s="25"/>
-      <c r="FR15" s="25"/>
-      <c r="FS15" s="25"/>
-      <c r="FT15" s="25"/>
-      <c r="FU15" s="25"/>
-      <c r="FV15" s="25"/>
-      <c r="FW15" s="25"/>
-      <c r="FX15" s="25"/>
-      <c r="FY15" s="25"/>
-      <c r="FZ15" s="25"/>
-      <c r="GA15" s="25"/>
-      <c r="GB15" s="25"/>
-      <c r="GC15" s="25"/>
-      <c r="GD15" s="25"/>
-      <c r="GE15" s="25"/>
-      <c r="GF15" s="25"/>
-      <c r="GG15" s="25"/>
-      <c r="GH15" s="25"/>
-      <c r="GI15" s="25"/>
-      <c r="GJ15" s="25"/>
-      <c r="GK15" s="25"/>
-      <c r="GL15" s="25"/>
-      <c r="GM15" s="25"/>
-      <c r="GN15" s="25"/>
-      <c r="GO15" s="25"/>
-      <c r="GP15" s="25"/>
-      <c r="GQ15" s="25"/>
-      <c r="GR15" s="25"/>
-      <c r="GS15" s="25"/>
-      <c r="GT15" s="25"/>
-      <c r="GU15" s="25"/>
-      <c r="GV15" s="25"/>
-      <c r="GW15" s="25"/>
-      <c r="GX15" s="25"/>
-      <c r="GY15" s="25"/>
-      <c r="GZ15" s="25"/>
-      <c r="HA15" s="25"/>
-      <c r="HB15" s="25"/>
-      <c r="HC15" s="25"/>
-      <c r="HD15" s="25"/>
-      <c r="HE15" s="25"/>
-      <c r="HF15" s="25"/>
-      <c r="HG15" s="25"/>
-      <c r="HH15" s="25"/>
-      <c r="HI15" s="25"/>
-      <c r="HJ15" s="25"/>
-      <c r="HK15" s="25"/>
-      <c r="HL15" s="25"/>
-      <c r="HM15" s="25"/>
-      <c r="HN15" s="25"/>
-      <c r="HO15" s="25"/>
-      <c r="HP15" s="25"/>
-      <c r="HQ15" s="25"/>
-      <c r="HR15" s="25"/>
-      <c r="HS15" s="25"/>
-      <c r="HT15" s="25"/>
-      <c r="HU15" s="25"/>
-      <c r="HV15" s="25"/>
-      <c r="HW15" s="25"/>
-      <c r="HX15" s="25"/>
-      <c r="HY15" s="25"/>
-      <c r="HZ15" s="25"/>
-      <c r="IA15" s="25"/>
-      <c r="IB15" s="25"/>
-      <c r="IC15" s="25"/>
-      <c r="ID15" s="25"/>
-      <c r="IE15" s="25"/>
-      <c r="IF15" s="25"/>
-      <c r="IG15" s="25"/>
-      <c r="IH15" s="25"/>
-      <c r="II15" s="25"/>
-      <c r="IJ15" s="25"/>
-      <c r="IK15" s="25"/>
-      <c r="IL15" s="25"/>
-      <c r="IM15" s="25"/>
-      <c r="IN15" s="25"/>
-      <c r="IO15" s="25"/>
-      <c r="IP15" s="25"/>
-      <c r="IQ15" s="25"/>
-      <c r="IR15" s="25"/>
-      <c r="IS15" s="25"/>
-      <c r="IT15" s="25"/>
-      <c r="IU15" s="25"/>
-      <c r="IV15" s="25"/>
-    </row>
-    <row r="16" spans="1:256" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A16" s="36">
+        <v>0.750000000000001</v>
+      </c>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="63"/>
+      <c r="O15" s="63"/>
+      <c r="P15" s="63"/>
+      <c r="Q15" s="63"/>
+      <c r="R15" s="63"/>
+      <c r="S15" s="63"/>
+      <c r="T15" s="63"/>
+      <c r="U15" s="63"/>
+      <c r="V15" s="63"/>
+      <c r="W15" s="63"/>
+      <c r="X15" s="63"/>
+      <c r="Y15" s="63"/>
+      <c r="Z15" s="63"/>
+      <c r="AA15" s="63"/>
+      <c r="AB15" s="63"/>
+      <c r="AC15" s="63"/>
+      <c r="AD15" s="63"/>
+      <c r="AE15" s="63"/>
+      <c r="AF15" s="63"/>
+      <c r="AG15" s="63"/>
+      <c r="AH15" s="63"/>
+      <c r="AI15" s="63"/>
+      <c r="AJ15" s="63"/>
+      <c r="AK15" s="63"/>
+      <c r="AL15" s="63"/>
+      <c r="AM15" s="63"/>
+      <c r="AN15" s="63"/>
+      <c r="AO15" s="63"/>
+      <c r="AP15" s="63"/>
+      <c r="AQ15" s="63"/>
+      <c r="AR15" s="63"/>
+      <c r="AS15" s="63"/>
+      <c r="AT15" s="63"/>
+      <c r="AU15" s="63"/>
+      <c r="AV15" s="63"/>
+      <c r="AW15" s="63"/>
+      <c r="AX15" s="63"/>
+      <c r="AY15" s="63"/>
+      <c r="AZ15" s="63"/>
+      <c r="BA15" s="63"/>
+      <c r="BB15" s="63"/>
+      <c r="BC15" s="63"/>
+      <c r="BD15" s="63"/>
+      <c r="BE15" s="63"/>
+      <c r="BF15" s="63"/>
+      <c r="BG15" s="63"/>
+      <c r="BH15" s="63"/>
+      <c r="BI15" s="63"/>
+      <c r="BJ15" s="63"/>
+      <c r="BK15" s="63"/>
+      <c r="BL15" s="63"/>
+      <c r="BM15" s="63"/>
+      <c r="BN15" s="63"/>
+      <c r="BO15" s="63"/>
+      <c r="BP15" s="63"/>
+      <c r="BQ15" s="63"/>
+      <c r="BR15" s="63"/>
+      <c r="BS15" s="63"/>
+      <c r="BT15" s="63"/>
+      <c r="BU15" s="63"/>
+      <c r="BV15" s="63"/>
+      <c r="BW15" s="63"/>
+      <c r="BX15" s="63"/>
+      <c r="BY15" s="63"/>
+      <c r="BZ15" s="63"/>
+      <c r="CA15" s="63"/>
+      <c r="CB15" s="63"/>
+      <c r="CC15" s="63"/>
+      <c r="CD15" s="63"/>
+      <c r="CE15" s="63"/>
+      <c r="CF15" s="63"/>
+      <c r="CG15" s="63"/>
+      <c r="CH15" s="63"/>
+      <c r="CI15" s="63"/>
+      <c r="CJ15" s="63"/>
+      <c r="CK15" s="63"/>
+      <c r="CL15" s="63"/>
+      <c r="CM15" s="63"/>
+      <c r="CN15" s="63"/>
+      <c r="CO15" s="63"/>
+      <c r="CP15" s="63"/>
+      <c r="CQ15" s="63"/>
+      <c r="CR15" s="63"/>
+      <c r="CS15" s="63"/>
+      <c r="CT15" s="63"/>
+      <c r="CU15" s="63"/>
+      <c r="CV15" s="63"/>
+      <c r="CW15" s="63"/>
+      <c r="CX15" s="63"/>
+      <c r="CY15" s="63"/>
+      <c r="CZ15" s="63"/>
+      <c r="DA15" s="63"/>
+      <c r="DB15" s="63"/>
+      <c r="DC15" s="63"/>
+      <c r="DD15" s="63"/>
+      <c r="DE15" s="63"/>
+      <c r="DF15" s="63"/>
+      <c r="DG15" s="63"/>
+      <c r="DH15" s="63"/>
+      <c r="DI15" s="63"/>
+      <c r="DJ15" s="63"/>
+      <c r="DK15" s="63"/>
+      <c r="DL15" s="63"/>
+      <c r="DM15" s="63"/>
+      <c r="DN15" s="63"/>
+      <c r="DO15" s="63"/>
+      <c r="DP15" s="63"/>
+      <c r="DQ15" s="63"/>
+      <c r="DR15" s="63"/>
+      <c r="DS15" s="63"/>
+      <c r="DT15" s="63"/>
+      <c r="DU15" s="63"/>
+      <c r="DV15" s="63"/>
+      <c r="DW15" s="63"/>
+      <c r="DX15" s="63"/>
+      <c r="DY15" s="63"/>
+      <c r="DZ15" s="63"/>
+      <c r="EA15" s="63"/>
+      <c r="EB15" s="63"/>
+      <c r="EC15" s="63"/>
+      <c r="ED15" s="63"/>
+      <c r="EE15" s="63"/>
+      <c r="EF15" s="63"/>
+      <c r="EG15" s="63"/>
+      <c r="EH15" s="63"/>
+      <c r="EI15" s="63"/>
+      <c r="EJ15" s="63"/>
+      <c r="EK15" s="63"/>
+      <c r="EL15" s="63"/>
+      <c r="EM15" s="63"/>
+      <c r="EN15" s="63"/>
+      <c r="EO15" s="63"/>
+      <c r="EP15" s="63"/>
+      <c r="EQ15" s="63"/>
+      <c r="ER15" s="63"/>
+      <c r="ES15" s="63"/>
+      <c r="ET15" s="63"/>
+      <c r="EU15" s="63"/>
+      <c r="EV15" s="63"/>
+      <c r="EW15" s="63"/>
+      <c r="EX15" s="63"/>
+      <c r="EY15" s="63"/>
+      <c r="EZ15" s="63"/>
+      <c r="FA15" s="63"/>
+      <c r="FB15" s="63"/>
+      <c r="FC15" s="63"/>
+      <c r="FD15" s="63"/>
+      <c r="FE15" s="63"/>
+      <c r="FF15" s="63"/>
+      <c r="FG15" s="63"/>
+      <c r="FH15" s="63"/>
+      <c r="FI15" s="63"/>
+      <c r="FJ15" s="63"/>
+      <c r="FK15" s="63"/>
+      <c r="FL15" s="63"/>
+      <c r="FM15" s="63"/>
+      <c r="FN15" s="63"/>
+      <c r="FO15" s="63"/>
+      <c r="FP15" s="63"/>
+      <c r="FQ15" s="63"/>
+      <c r="FR15" s="63"/>
+      <c r="FS15" s="63"/>
+      <c r="FT15" s="63"/>
+      <c r="FU15" s="63"/>
+      <c r="FV15" s="63"/>
+      <c r="FW15" s="63"/>
+      <c r="FX15" s="63"/>
+      <c r="FY15" s="63"/>
+      <c r="FZ15" s="63"/>
+      <c r="GA15" s="63"/>
+      <c r="GB15" s="63"/>
+      <c r="GC15" s="63"/>
+      <c r="GD15" s="63"/>
+      <c r="GE15" s="63"/>
+      <c r="GF15" s="63"/>
+      <c r="GG15" s="63"/>
+      <c r="GH15" s="63"/>
+      <c r="GI15" s="63"/>
+      <c r="GJ15" s="63"/>
+      <c r="GK15" s="63"/>
+      <c r="GL15" s="63"/>
+      <c r="GM15" s="63"/>
+      <c r="GN15" s="63"/>
+      <c r="GO15" s="63"/>
+      <c r="GP15" s="63"/>
+      <c r="GQ15" s="63"/>
+      <c r="GR15" s="63"/>
+      <c r="GS15" s="63"/>
+      <c r="GT15" s="63"/>
+      <c r="GU15" s="63"/>
+      <c r="GV15" s="63"/>
+      <c r="GW15" s="63"/>
+      <c r="GX15" s="63"/>
+      <c r="GY15" s="63"/>
+      <c r="GZ15" s="63"/>
+      <c r="HA15" s="63"/>
+      <c r="HB15" s="63"/>
+      <c r="HC15" s="63"/>
+      <c r="HD15" s="63"/>
+      <c r="HE15" s="63"/>
+      <c r="HF15" s="63"/>
+      <c r="HG15" s="63"/>
+      <c r="HH15" s="63"/>
+      <c r="HI15" s="63"/>
+      <c r="HJ15" s="63"/>
+      <c r="HK15" s="63"/>
+      <c r="HL15" s="63"/>
+      <c r="HM15" s="63"/>
+      <c r="HN15" s="63"/>
+      <c r="HO15" s="63"/>
+      <c r="HP15" s="63"/>
+      <c r="HQ15" s="63"/>
+      <c r="HR15" s="63"/>
+      <c r="HS15" s="63"/>
+      <c r="HT15" s="63"/>
+      <c r="HU15" s="63"/>
+      <c r="HV15" s="63"/>
+      <c r="HW15" s="63"/>
+      <c r="HX15" s="63"/>
+      <c r="HY15" s="63"/>
+      <c r="HZ15" s="63"/>
+      <c r="IA15" s="63"/>
+      <c r="IB15" s="63"/>
+      <c r="IC15" s="63"/>
+      <c r="ID15" s="63"/>
+      <c r="IE15" s="63"/>
+      <c r="IF15" s="63"/>
+      <c r="IG15" s="63"/>
+      <c r="IH15" s="63"/>
+      <c r="II15" s="63"/>
+      <c r="IJ15" s="63"/>
+      <c r="IK15" s="63"/>
+      <c r="IL15" s="63"/>
+      <c r="IM15" s="63"/>
+      <c r="IN15" s="63"/>
+      <c r="IO15" s="63"/>
+      <c r="IP15" s="63"/>
+      <c r="IQ15" s="63"/>
+      <c r="IR15" s="63"/>
+      <c r="IS15" s="63"/>
+      <c r="IT15" s="63"/>
+      <c r="IU15" s="63"/>
+      <c r="IV15" s="63"/>
+    </row>
+    <row r="16" ht="13.5" customHeight="1" spans="1:9">
+      <c r="A16" s="25">
         <v>3</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="26">
         <v>0</v>
       </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" s="13">
+      <c r="C16" s="27"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-    </row>
-    <row r="17" spans="1:10" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A17" s="36">
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+    </row>
+    <row r="17" ht="13.5" customHeight="1" spans="1:9">
+      <c r="A17" s="25">
         <v>4</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="26">
         <v>0</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="13">
+      <c r="C17" s="27"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-    </row>
-    <row r="18" spans="1:10" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A18" s="26">
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+    </row>
+    <row r="18" ht="13.5" customHeight="1" spans="1:10">
+      <c r="A18" s="17">
         <v>5</v>
       </c>
-      <c r="B18" s="27">
+      <c r="B18" s="18">
         <v>0.3125</v>
       </c>
-      <c r="C18" s="61"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" s="63">
+      <c r="C18" s="19"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="22">
         <f t="shared" si="0"/>
         <v>0.937500000000001</v>
       </c>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-    </row>
-    <row r="19" spans="1:10" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A19" s="26">
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+    </row>
+    <row r="19" ht="13.5" customHeight="1" spans="1:10">
+      <c r="A19" s="17">
         <v>6</v>
       </c>
-      <c r="B19" s="27">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="C19" s="61"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="63">
+      <c r="B19" s="18">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="C19" s="19"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="22">
         <f t="shared" si="0"/>
-        <v>1.1875000000000011</v>
-      </c>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-    </row>
-    <row r="20" spans="1:10" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A20" s="26">
+        <v>1.1875</v>
+      </c>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+    </row>
+    <row r="20" ht="13.5" customHeight="1" spans="1:10">
+      <c r="A20" s="17">
         <v>7</v>
       </c>
-      <c r="B20" s="27">
+      <c r="B20" s="18">
         <v>0.3125</v>
       </c>
-      <c r="C20" s="61"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" s="63">
+      <c r="C20" s="19"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="22">
         <f t="shared" si="0"/>
         <v>0.937500000000001</v>
       </c>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-    </row>
-    <row r="21" spans="1:10" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A21" s="26">
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+    </row>
+    <row r="21" ht="13.5" customHeight="1" spans="1:10">
+      <c r="A21" s="17">
         <v>8</v>
       </c>
-      <c r="B21" s="27">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="C21" s="61"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="62"/>
-      <c r="F21" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" s="63">
+      <c r="B21" s="18">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="C21" s="19"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="22">
         <f t="shared" si="0"/>
-        <v>1.1875000000000011</v>
-      </c>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-    </row>
-    <row r="22" spans="1:10" s="30" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A22" s="26">
+        <v>1.1875</v>
+      </c>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+    </row>
+    <row r="22" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:10">
+      <c r="A22" s="17">
         <v>9</v>
       </c>
-      <c r="B22" s="27">
+      <c r="B22" s="18">
         <v>0.25</v>
       </c>
-      <c r="C22" s="61"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" s="63">
+      <c r="C22" s="19"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="22">
         <f t="shared" si="0"/>
-        <v>0.75000000000000078</v>
-      </c>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="29"/>
-    </row>
-    <row r="23" spans="1:10" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A23" s="36">
+        <v>0.750000000000001</v>
+      </c>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="23"/>
+    </row>
+    <row r="23" ht="13.5" customHeight="1" spans="1:9">
+      <c r="A23" s="25">
         <v>10</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B23" s="26">
         <v>0</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" s="13">
+      <c r="C23" s="27"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-    </row>
-    <row r="24" spans="1:10" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A24" s="36">
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+    </row>
+    <row r="24" ht="13.5" customHeight="1" spans="1:9">
+      <c r="A24" s="25">
         <v>11</v>
       </c>
-      <c r="B24" s="9">
+      <c r="B24" s="26">
         <v>0</v>
       </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" s="13">
+      <c r="C24" s="27"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-    </row>
-    <row r="25" spans="1:10" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A25" s="26">
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+    </row>
+    <row r="25" ht="13.5" customHeight="1" spans="1:9">
+      <c r="A25" s="17">
         <v>12</v>
       </c>
-      <c r="B25" s="27">
+      <c r="B25" s="18">
         <v>0.3125</v>
       </c>
-      <c r="C25" s="61"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" s="63">
+      <c r="C25" s="19"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" s="22">
         <f t="shared" si="0"/>
         <v>0.937500000000001</v>
       </c>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-    </row>
-    <row r="26" spans="1:10" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A26" s="26">
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+    </row>
+    <row r="26" ht="13.5" customHeight="1" spans="1:9">
+      <c r="A26" s="17">
         <v>13</v>
       </c>
-      <c r="B26" s="27">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="C26" s="61"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" s="63">
+      <c r="B26" s="18">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="C26" s="19"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" s="22">
         <f t="shared" si="0"/>
-        <v>1.1875000000000011</v>
-      </c>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-    </row>
-    <row r="27" spans="1:10" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A27" s="26">
-        <v>14</v>
-      </c>
-      <c r="B27" s="27">
+        <v>1.1875</v>
+      </c>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+    </row>
+    <row r="27" ht="13.5" customHeight="1" spans="1:9">
+      <c r="A27" s="17">
+        <v>14</v>
+      </c>
+      <c r="B27" s="18">
         <v>0.3125</v>
       </c>
-      <c r="C27" s="61"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="62"/>
-      <c r="F27" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" s="63">
+      <c r="C27" s="19"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="22">
         <f t="shared" si="0"/>
         <v>0.937500000000001</v>
       </c>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-    </row>
-    <row r="28" spans="1:10" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A28" s="26">
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+    </row>
+    <row r="28" ht="13.5" customHeight="1" spans="1:9">
+      <c r="A28" s="17">
         <v>15</v>
       </c>
-      <c r="B28" s="27">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="C28" s="61"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="62"/>
-      <c r="F28" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" s="63">
+      <c r="B28" s="18">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="C28" s="19"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" s="22">
         <f t="shared" si="0"/>
-        <v>1.1875000000000011</v>
-      </c>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-    </row>
-    <row r="29" spans="1:10" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A29" s="26">
+        <v>1.1875</v>
+      </c>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+    </row>
+    <row r="29" ht="13.5" customHeight="1" spans="1:9">
+      <c r="A29" s="17">
         <v>16</v>
       </c>
-      <c r="B29" s="27">
+      <c r="B29" s="18">
         <v>0.25</v>
       </c>
-      <c r="C29" s="61"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="62"/>
-      <c r="F29" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" s="63">
+      <c r="C29" s="19"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" s="22">
         <f t="shared" si="0"/>
-        <v>0.75000000000000078</v>
-      </c>
-      <c r="H29" s="35"/>
-      <c r="I29" s="35"/>
-    </row>
-    <row r="30" spans="1:10" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A30" s="36">
+        <v>0.750000000000001</v>
+      </c>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+    </row>
+    <row r="30" ht="13.5" customHeight="1" spans="1:9">
+      <c r="A30" s="25">
         <v>17</v>
       </c>
-      <c r="B30" s="9">
+      <c r="B30" s="26">
         <v>0</v>
       </c>
-      <c r="C30" s="10"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" s="13">
+      <c r="C30" s="27"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-    </row>
-    <row r="31" spans="1:10" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A31" s="36">
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
+    </row>
+    <row r="31" ht="13.5" customHeight="1" spans="1:9">
+      <c r="A31" s="25">
         <v>18</v>
       </c>
-      <c r="B31" s="9">
+      <c r="B31" s="26">
         <v>0</v>
       </c>
-      <c r="C31" s="10"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" s="13">
+      <c r="C31" s="27"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-    </row>
-    <row r="32" spans="1:10" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A32" s="26">
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
+    </row>
+    <row r="32" ht="13.5" customHeight="1" spans="1:9">
+      <c r="A32" s="17">
         <v>19</v>
       </c>
-      <c r="B32" s="27">
+      <c r="B32" s="18">
         <v>0.3125</v>
       </c>
-      <c r="C32" s="61"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="62"/>
-      <c r="F32" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G32" s="63">
+      <c r="C32" s="19"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G32" s="22">
         <f t="shared" si="0"/>
         <v>0.937500000000001</v>
       </c>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-    </row>
-    <row r="33" spans="1:9" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A33" s="26">
+      <c r="H32" s="24"/>
+      <c r="I32" s="24"/>
+    </row>
+    <row r="33" ht="13.5" customHeight="1" spans="1:9">
+      <c r="A33" s="17">
         <v>20</v>
       </c>
-      <c r="B33" s="27">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="C33" s="61"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="62"/>
-      <c r="F33" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" s="63">
+      <c r="B33" s="18">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="C33" s="19"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G33" s="22">
         <f t="shared" si="0"/>
-        <v>1.1875000000000011</v>
-      </c>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
-    </row>
-    <row r="34" spans="1:9" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A34" s="26">
+        <v>1.1875</v>
+      </c>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
+    </row>
+    <row r="34" ht="13.5" customHeight="1" spans="1:9">
+      <c r="A34" s="17">
         <v>21</v>
       </c>
-      <c r="B34" s="27">
+      <c r="B34" s="18">
         <v>0.3125</v>
       </c>
-      <c r="C34" s="61"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="62"/>
-      <c r="F34" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G34" s="63">
+      <c r="C34" s="19"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G34" s="22">
         <f t="shared" si="0"/>
         <v>0.937500000000001</v>
       </c>
-      <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
-    </row>
-    <row r="35" spans="1:9" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A35" s="26">
+      <c r="H34" s="24"/>
+      <c r="I34" s="24"/>
+    </row>
+    <row r="35" ht="13.5" customHeight="1" spans="1:9">
+      <c r="A35" s="17">
         <v>22</v>
       </c>
-      <c r="B35" s="27">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="C35" s="61"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="62"/>
-      <c r="F35" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G35" s="63">
+      <c r="B35" s="18">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="C35" s="19"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G35" s="22">
         <f t="shared" si="0"/>
-        <v>1.1875000000000011</v>
-      </c>
-      <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
-    </row>
-    <row r="36" spans="1:9" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A36" s="26">
+        <v>1.1875</v>
+      </c>
+      <c r="H35" s="24"/>
+      <c r="I35" s="24"/>
+    </row>
+    <row r="36" ht="13.5" customHeight="1" spans="1:9">
+      <c r="A36" s="17">
         <v>23</v>
       </c>
-      <c r="B36" s="27">
+      <c r="B36" s="18">
         <v>0.25</v>
       </c>
-      <c r="C36" s="61"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="62"/>
-      <c r="F36" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G36" s="63">
+      <c r="C36" s="19"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G36" s="22">
         <f t="shared" si="0"/>
-        <v>0.75000000000000078</v>
-      </c>
-      <c r="H36" s="35"/>
-      <c r="I36" s="35"/>
-    </row>
-    <row r="37" spans="1:9" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A37" s="36">
+        <v>0.750000000000001</v>
+      </c>
+      <c r="H36" s="31"/>
+      <c r="I36" s="31"/>
+    </row>
+    <row r="37" ht="13.5" customHeight="1" spans="1:9">
+      <c r="A37" s="25">
         <v>24</v>
       </c>
-      <c r="B37" s="9">
+      <c r="B37" s="26">
         <v>0</v>
       </c>
-      <c r="C37" s="10"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G37" s="13">
+      <c r="C37" s="27"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="G37" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
-    </row>
-    <row r="38" spans="1:9" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A38" s="36">
+      <c r="H37" s="24"/>
+      <c r="I37" s="24"/>
+    </row>
+    <row r="38" ht="13.5" customHeight="1" spans="1:9">
+      <c r="A38" s="25">
         <v>25</v>
       </c>
-      <c r="B38" s="9">
+      <c r="B38" s="26">
         <v>0</v>
       </c>
-      <c r="C38" s="10"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G38" s="13">
+      <c r="C38" s="27"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="G38" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H38" s="14"/>
-      <c r="I38" s="14"/>
-    </row>
-    <row r="39" spans="1:9" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A39" s="26">
+      <c r="H38" s="24"/>
+      <c r="I38" s="24"/>
+    </row>
+    <row r="39" ht="13.5" customHeight="1" spans="1:9">
+      <c r="A39" s="17">
         <v>26</v>
       </c>
-      <c r="B39" s="27">
+      <c r="B39" s="18">
         <v>0.3125</v>
       </c>
-      <c r="C39" s="61"/>
-      <c r="D39" s="28"/>
-      <c r="E39" s="62"/>
-      <c r="F39" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" s="63">
+      <c r="C39" s="19"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G39" s="22">
         <f t="shared" si="0"/>
         <v>0.937500000000001</v>
       </c>
-      <c r="H39" s="14"/>
-      <c r="I39" s="14"/>
-    </row>
-    <row r="40" spans="1:9" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A40" s="26">
+      <c r="H39" s="24"/>
+      <c r="I39" s="24"/>
+    </row>
+    <row r="40" ht="13.5" customHeight="1" spans="1:9">
+      <c r="A40" s="17">
         <v>27</v>
       </c>
-      <c r="B40" s="27">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="C40" s="61"/>
-      <c r="D40" s="28"/>
-      <c r="E40" s="62"/>
-      <c r="F40" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40" s="63">
+      <c r="B40" s="18">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="C40" s="19"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G40" s="22">
         <f t="shared" si="0"/>
-        <v>1.1875000000000011</v>
-      </c>
-      <c r="H40" s="14"/>
-      <c r="I40" s="14"/>
-    </row>
-    <row r="41" spans="1:9" ht="13.5" thickBot="1">
-      <c r="A41" s="26">
+        <v>1.1875</v>
+      </c>
+      <c r="H40" s="24"/>
+      <c r="I40" s="24"/>
+    </row>
+    <row r="41" ht="13.5" spans="1:9">
+      <c r="A41" s="17">
         <v>28</v>
       </c>
-      <c r="B41" s="27">
+      <c r="B41" s="18">
         <v>0.3125</v>
       </c>
-      <c r="C41" s="61"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="62"/>
-      <c r="F41" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G41" s="63">
+      <c r="C41" s="19"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G41" s="22">
         <f t="shared" si="0"/>
         <v>0.937500000000001</v>
       </c>
-      <c r="H41" s="14"/>
-      <c r="I41" s="14"/>
-    </row>
-    <row r="42" spans="1:9" ht="13.5" thickBot="1">
-      <c r="A42" s="26">
+      <c r="H41" s="24"/>
+      <c r="I41" s="24"/>
+    </row>
+    <row r="42" ht="13.5" spans="1:9">
+      <c r="A42" s="17">
         <v>29</v>
       </c>
-      <c r="B42" s="27">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="C42" s="61"/>
-      <c r="D42" s="28"/>
-      <c r="E42" s="62"/>
-      <c r="F42" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G42" s="63">
+      <c r="B42" s="18">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="C42" s="19"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G42" s="22">
         <f t="shared" si="0"/>
-        <v>1.1875000000000011</v>
-      </c>
-      <c r="H42" s="14"/>
-      <c r="I42" s="14"/>
-    </row>
-    <row r="43" spans="1:9" ht="15" customHeight="1" thickBot="1">
-      <c r="A43" s="26">
+        <v>1.1875</v>
+      </c>
+      <c r="H42" s="24"/>
+      <c r="I42" s="24"/>
+    </row>
+    <row r="43" ht="15" customHeight="1" spans="1:9">
+      <c r="A43" s="17">
         <v>30</v>
       </c>
-      <c r="B43" s="27">
+      <c r="B43" s="18">
         <v>0.25</v>
       </c>
-      <c r="C43" s="61"/>
-      <c r="D43" s="28"/>
-      <c r="E43" s="62"/>
-      <c r="F43" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G43" s="63">
+      <c r="C43" s="19"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G43" s="22">
         <f t="shared" si="0"/>
-        <v>0.75000000000000078</v>
-      </c>
-      <c r="H43" s="35"/>
-      <c r="I43" s="35"/>
-    </row>
-    <row r="44" spans="1:9" s="30" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A44" s="26">
+        <v>0.750000000000001</v>
+      </c>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31"/>
+    </row>
+    <row r="44" s="1" customFormat="1" ht="15" customHeight="1" spans="1:9">
+      <c r="A44" s="17">
         <v>31</v>
       </c>
-      <c r="B44" s="27"/>
-      <c r="C44" s="31"/>
-      <c r="D44" s="32"/>
-      <c r="E44" s="33"/>
-      <c r="F44" s="28"/>
-      <c r="G44" s="34"/>
-      <c r="H44" s="14"/>
-      <c r="I44" s="14"/>
-    </row>
-    <row r="45" spans="1:9" ht="15" customHeight="1" thickBot="1">
-      <c r="A45" s="15" t="s">
+      <c r="B44" s="18"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="33"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="35"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="24"/>
+    </row>
+    <row r="45" ht="15" customHeight="1" spans="1:9">
+      <c r="A45" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="B45" s="38">
+      <c r="B45" s="37">
         <f t="shared" ref="B45:G45" si="1">SUM(B14:B44)</f>
-        <v>7.2291666666666661</v>
-      </c>
-      <c r="C45" s="16">
+        <v>7.22916666666667</v>
+      </c>
+      <c r="C45" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D45" s="17">
+      <c r="D45" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E45" s="16"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="18">
+      <c r="E45" s="38"/>
+      <c r="F45" s="40"/>
+      <c r="G45" s="40">
         <f t="shared" si="1"/>
-        <v>21.687500000000021</v>
-      </c>
-      <c r="H45" s="14"/>
-      <c r="I45" s="14"/>
-    </row>
-    <row r="46" spans="1:9" ht="15" customHeight="1" thickBot="1">
-      <c r="A46" s="19"/>
-      <c r="B46" s="19"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="20"/>
-      <c r="G46" s="20"/>
-      <c r="H46" s="14"/>
-      <c r="I46" s="14"/>
-    </row>
-    <row r="47" spans="1:9" ht="15" customHeight="1" thickBot="1">
-      <c r="A47" s="45" t="s">
+        <v>21.6875</v>
+      </c>
+      <c r="H45" s="24"/>
+      <c r="I45" s="24"/>
+    </row>
+    <row r="46" ht="15" customHeight="1" spans="1:9">
+      <c r="A46" s="41"/>
+      <c r="B46" s="41"/>
+      <c r="C46" s="41"/>
+      <c r="D46" s="41"/>
+      <c r="E46" s="41"/>
+      <c r="F46" s="42"/>
+      <c r="G46" s="42"/>
+      <c r="H46" s="24"/>
+      <c r="I46" s="24"/>
+    </row>
+    <row r="47" ht="15" customHeight="1" spans="1:9">
+      <c r="A47" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="B47" s="46"/>
-      <c r="C47" s="46"/>
-      <c r="D47" s="46"/>
-      <c r="E47" s="47"/>
-      <c r="F47" s="39" t="s">
+      <c r="B47" s="44"/>
+      <c r="C47" s="44"/>
+      <c r="D47" s="44"/>
+      <c r="E47" s="45"/>
+      <c r="F47" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G47" s="48"/>
-      <c r="H47" s="14"/>
-      <c r="I47" s="14"/>
-    </row>
-    <row r="48" spans="1:9" ht="15" customHeight="1">
-      <c r="A48" s="49"/>
-      <c r="B48" s="50"/>
-      <c r="C48" s="50"/>
-      <c r="D48" s="50"/>
-      <c r="E48" s="51"/>
-      <c r="F48" s="55"/>
-      <c r="G48" s="56"/>
-      <c r="H48" s="14"/>
-      <c r="I48" s="14"/>
-    </row>
-    <row r="49" spans="1:7" ht="44.45" customHeight="1">
-      <c r="A49" s="49"/>
-      <c r="B49" s="50"/>
-      <c r="C49" s="50"/>
-      <c r="D49" s="50"/>
-      <c r="E49" s="51"/>
-      <c r="F49" s="57"/>
-      <c r="G49" s="58"/>
-    </row>
-    <row r="50" spans="1:7" ht="12.75" hidden="1" customHeight="1">
-      <c r="A50" s="49"/>
-      <c r="B50" s="50"/>
-      <c r="C50" s="50"/>
-      <c r="D50" s="50"/>
-      <c r="E50" s="51"/>
-      <c r="F50" s="57"/>
-      <c r="G50" s="58"/>
-    </row>
-    <row r="51" spans="1:7" ht="12.75" hidden="1" customHeight="1">
-      <c r="A51" s="49"/>
-      <c r="B51" s="50"/>
-      <c r="C51" s="50"/>
-      <c r="D51" s="50"/>
-      <c r="E51" s="51"/>
-      <c r="F51" s="57"/>
-      <c r="G51" s="58"/>
+      <c r="G47" s="46"/>
+      <c r="H47" s="24"/>
+      <c r="I47" s="24"/>
+    </row>
+    <row r="48" ht="15" customHeight="1" spans="1:9">
+      <c r="A48" s="47"/>
+      <c r="B48" s="48"/>
+      <c r="C48" s="48"/>
+      <c r="D48" s="48"/>
+      <c r="E48" s="49"/>
+      <c r="F48" s="50"/>
+      <c r="G48" s="51"/>
+      <c r="H48" s="24"/>
+      <c r="I48" s="24"/>
+    </row>
+    <row r="49" ht="44.45" customHeight="1" spans="1:7">
+      <c r="A49" s="47"/>
+      <c r="B49" s="48"/>
+      <c r="C49" s="48"/>
+      <c r="D49" s="48"/>
+      <c r="E49" s="49"/>
+      <c r="F49" s="52"/>
+      <c r="G49" s="53"/>
+    </row>
+    <row r="50" hidden="1" customHeight="1" spans="1:7">
+      <c r="A50" s="47"/>
+      <c r="B50" s="48"/>
+      <c r="C50" s="48"/>
+      <c r="D50" s="48"/>
+      <c r="E50" s="49"/>
+      <c r="F50" s="52"/>
+      <c r="G50" s="53"/>
+    </row>
+    <row r="51" hidden="1" customHeight="1" spans="1:7">
+      <c r="A51" s="47"/>
+      <c r="B51" s="48"/>
+      <c r="C51" s="48"/>
+      <c r="D51" s="48"/>
+      <c r="E51" s="49"/>
+      <c r="F51" s="52"/>
+      <c r="G51" s="53"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="49"/>
-      <c r="B52" s="50"/>
-      <c r="C52" s="50"/>
-      <c r="D52" s="50"/>
-      <c r="E52" s="51"/>
-      <c r="F52" s="57"/>
-      <c r="G52" s="58"/>
-    </row>
-    <row r="53" spans="1:7" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A53" s="52"/>
-      <c r="B53" s="53"/>
-      <c r="C53" s="53"/>
-      <c r="D53" s="53"/>
-      <c r="E53" s="54"/>
-      <c r="F53" s="59"/>
-      <c r="G53" s="60"/>
-    </row>
-    <row r="54" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A54" s="21"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-    </row>
-    <row r="55" spans="1:7" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A55" s="22"/>
-      <c r="B55" s="23"/>
-      <c r="C55" s="23"/>
-      <c r="D55" s="23"/>
-      <c r="E55" s="23"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-    </row>
-    <row r="57" spans="1:7" ht="20.25">
-      <c r="A57" s="24" t="s">
+      <c r="A52" s="47"/>
+      <c r="B52" s="48"/>
+      <c r="C52" s="48"/>
+      <c r="D52" s="48"/>
+      <c r="E52" s="49"/>
+      <c r="F52" s="52"/>
+      <c r="G52" s="53"/>
+    </row>
+    <row r="53" customHeight="1" spans="1:7">
+      <c r="A53" s="54"/>
+      <c r="B53" s="55"/>
+      <c r="C53" s="55"/>
+      <c r="D53" s="55"/>
+      <c r="E53" s="56"/>
+      <c r="F53" s="57"/>
+      <c r="G53" s="58"/>
+    </row>
+    <row r="54" customHeight="1" spans="1:7">
+      <c r="A54" s="59"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+    </row>
+    <row r="55" customHeight="1" spans="1:7">
+      <c r="A55" s="60"/>
+      <c r="B55" s="61"/>
+      <c r="C55" s="61"/>
+      <c r="D55" s="61"/>
+      <c r="E55" s="61"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+    </row>
+    <row r="57" ht="20.25" spans="1:1">
+      <c r="A57" s="62" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="13.5" customHeight="1"/>
+    <row r="58" ht="13.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A11:E11"/>
@@ -2168,9 +2797,9 @@
     <mergeCell ref="F48:G53"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0.39305555555555599" right="0.15625" top="7.7777777777777807E-2" bottom="0.86527777777777803" header="7.7777777777777807E-2" footer="0.59027777777777801"/>
-  <pageSetup paperSize="9" scale="89" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.393055555555556" right="0.15625" top="0.0777777777777778" bottom="0.865277777777778" header="0.0777777777777778" footer="0.590277777777778"/>
+  <pageSetup paperSize="9" scale="89" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>